--- a/data/output/PC/validation/PC_validation_data.xlsx
+++ b/data/output/PC/validation/PC_validation_data.xlsx
@@ -460,7 +460,7 @@
         <v>0.3344619565217391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4768961515609137</v>
+        <v>0.4786315278007754</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>0.3321416666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4907090233955974</v>
+        <v>0.4925067294799467</v>
       </c>
     </row>
     <row r="4">
@@ -486,7 +486,7 @@
         <v>0.3308083333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4356852260653008</v>
+        <v>0.4372410175911853</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>0.3284402777777778</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4294243174066552</v>
+        <v>0.4309536615451564</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +512,7 @@
         <v>0.3264541666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4105070183952378</v>
+        <v>0.4119577909917903</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>0.3260333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4325882074700618</v>
+        <v>0.4341308889921295</v>
       </c>
     </row>
     <row r="8">
@@ -538,7 +538,7 @@
         <v>0.3251958333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4078742690939023</v>
+        <v>0.4093142662647271</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>0.3242263888888889</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4023122986670622</v>
+        <v>0.4037296596951824</v>
       </c>
     </row>
     <row r="10">
@@ -564,7 +564,7 @@
         <v>0.3231050420168067</v>
       </c>
       <c r="C10" t="n">
-        <v>0.376035111343873</v>
+        <v>0.3773478808666696</v>
       </c>
     </row>
     <row r="11">
@@ -577,7 +577,7 @@
         <v>0.3213486111111111</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3777768181144189</v>
+        <v>0.3790964000787755</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +590,7 @@
         <v>0.3194555555555555</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3329170171784661</v>
+        <v>0.3340665714765944</v>
       </c>
     </row>
     <row r="13">
@@ -603,7 +603,7 @@
         <v>0.3176486111111111</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3120140651479551</v>
+        <v>0.3130882549836683</v>
       </c>
     </row>
     <row r="14">
@@ -616,7 +616,7 @@
         <v>0.3157</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2902929820390653</v>
+        <v>0.2912914581222826</v>
       </c>
     </row>
     <row r="15">
@@ -629,7 +629,7 @@
         <v>0.3132625</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2802601456097492</v>
+        <v>0.2812245446496505</v>
       </c>
     </row>
     <row r="16">
@@ -642,7 +642,7 @@
         <v>0.3105774058577406</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2778206258124313</v>
+        <v>0.2752684787677005</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         <v>0.3078875</v>
       </c>
       <c r="C17" t="n">
-        <v>0.263864912930071</v>
+        <v>0.2599289381341629</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>0.3052555555555556</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2492252498794999</v>
+        <v>0.2500878159697966</v>
       </c>
     </row>
     <row r="19">
@@ -681,7 +681,7 @@
         <v>0.3023375886524823</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2413439865064645</v>
+        <v>0.2421815533438199</v>
       </c>
     </row>
     <row r="20">
@@ -694,7 +694,7 @@
         <v>0.2991927536231884</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2451939872486993</v>
+        <v>0.2460437226642663</v>
       </c>
     </row>
     <row r="21">
@@ -707,7 +707,7 @@
         <v>0.2965321375186846</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2349415803644948</v>
+        <v>0.2335955360617108</v>
       </c>
     </row>
     <row r="22">
@@ -720,7 +720,7 @@
         <v>0.3011188271604938</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3169665383736176</v>
+        <v>0.3104797446186247</v>
       </c>
     </row>
     <row r="23">
@@ -733,7 +733,7 @@
         <v>0.3104768518518519</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3781259304022481</v>
+        <v>0.3794468799216242</v>
       </c>
     </row>
     <row r="24">
@@ -746,7 +746,7 @@
         <v>0.3095</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3531553111386488</v>
+        <v>0.3543801725528745</v>
       </c>
     </row>
     <row r="25">
@@ -759,7 +759,7 @@
         <v>0.3079783950617284</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3197228536001017</v>
+        <v>0.3208245513528886</v>
       </c>
     </row>
     <row r="26">
@@ -772,7 +772,7 @@
         <v>0.3056836419753086</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3036755765496637</v>
+        <v>0.3047203872931629</v>
       </c>
     </row>
     <row r="27">
@@ -785,7 +785,7 @@
         <v>0.3035617283950617</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2929974331720085</v>
+        <v>0.2940051917961936</v>
       </c>
     </row>
     <row r="28">
@@ -798,7 +798,7 @@
         <v>0.3164522821576763</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3870498820743378</v>
+        <v>0.3884060213777464</v>
       </c>
     </row>
     <row r="29">
@@ -811,7 +811,7 @@
         <v>0.3165127314814815</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3918101098068956</v>
+        <v>0.3931852031717573</v>
       </c>
     </row>
     <row r="30">
@@ -824,7 +824,7 @@
         <v>0.3135613425925926</v>
       </c>
       <c r="C30" t="n">
-        <v>0.344449805185451</v>
+        <v>0.3456419911610788</v>
       </c>
     </row>
     <row r="31">
@@ -837,7 +837,7 @@
         <v>0.3113518518518518</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3474612933649757</v>
+        <v>0.3486647345494929</v>
       </c>
     </row>
     <row r="32">
@@ -850,7 +850,7 @@
         <v>0.3083587962962963</v>
       </c>
       <c r="C32" t="n">
-        <v>0.327834476144631</v>
+        <v>0.318614823960539</v>
       </c>
     </row>
     <row r="33">
@@ -863,7 +863,7 @@
         <v>0.3051469907407408</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3087924015987075</v>
+        <v>0.3098551942107188</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>0.3022303240740741</v>
       </c>
       <c r="C34" t="n">
-        <v>0.28079239251543</v>
+        <v>0.2817585851597662</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +889,7 @@
         <v>0.2990555555555556</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2731209003803149</v>
+        <v>0.2740613948580505</v>
       </c>
     </row>
     <row r="36">
@@ -902,7 +902,7 @@
         <v>0.2951087962962963</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2658531243709848</v>
+        <v>0.2511492228651855</v>
       </c>
     </row>
     <row r="37">
@@ -915,7 +915,7 @@
         <v>0.2917592592592593</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2585666345583624</v>
+        <v>0.245595494026274</v>
       </c>
     </row>
     <row r="38">
@@ -928,7 +928,7 @@
         <v>0.2901400462962963</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2600397844859729</v>
+        <v>0.2563157082251977</v>
       </c>
     </row>
     <row r="39">
@@ -941,7 +941,7 @@
         <v>0.2892465277777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2544595542212646</v>
+        <v>0.255338916168217</v>
       </c>
     </row>
     <row r="40">
@@ -954,7 +954,7 @@
         <v>0.2876412037037037</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2499336485751482</v>
+        <v>0.2507984787773767</v>
       </c>
     </row>
     <row r="41">
@@ -967,7 +967,7 @@
         <v>0.2844722222222222</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2345045001740313</v>
+        <v>0.2353206548836307</v>
       </c>
     </row>
     <row r="42">
@@ -980,7 +980,7 @@
         <v>0.2807905092592592</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2364121160680182</v>
+        <v>0.2372342164719904</v>
       </c>
     </row>
     <row r="43">
@@ -993,7 +993,7 @@
         <v>0.2780451388888889</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2307081262322634</v>
+        <v>0.231512509111503</v>
       </c>
     </row>
     <row r="44">
@@ -1006,7 +1006,7 @@
         <v>0.3066840277777778</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3927675762381846</v>
+        <v>0.4012277052392567</v>
       </c>
     </row>
     <row r="45">
@@ -1019,7 +1019,7 @@
         <v>0.32475</v>
       </c>
       <c r="C45" t="n">
-        <v>0.41340858704039</v>
+        <v>0.4148712804383012</v>
       </c>
     </row>
     <row r="46">
@@ -1032,7 +1032,7 @@
         <v>0.3284189814814815</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4328056796145132</v>
+        <v>0.4343492799582375</v>
       </c>
     </row>
     <row r="47">
@@ -1045,7 +1045,7 @@
         <v>0.3335069444444444</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4293560179920805</v>
+        <v>0.4308850748349564</v>
       </c>
     </row>
     <row r="48">
@@ -1058,7 +1058,7 @@
         <v>0.3301458333333333</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3986609565188758</v>
+        <v>0.400063551852279</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1071,7 @@
         <v>0.3250081018518519</v>
       </c>
       <c r="C49" t="n">
-        <v>0.379327386564998</v>
+        <v>0.3860349263166231</v>
       </c>
     </row>
     <row r="50">
@@ -1084,7 +1084,7 @@
         <v>0.3236122685185185</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3914169891562055</v>
+        <v>0.4063920316772461</v>
       </c>
     </row>
     <row r="51">
@@ -1097,7 +1097,7 @@
         <v>0.3250787037037037</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3953603486928283</v>
+        <v>0.4014605581892984</v>
       </c>
     </row>
     <row r="52">
@@ -1110,7 +1110,7 @@
         <v>0.3296273148148148</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4163367303888826</v>
+        <v>0.4178115017543014</v>
       </c>
     </row>
     <row r="53">
@@ -1123,7 +1123,7 @@
         <v>0.35571875</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5513435833091318</v>
+        <v>0.5534275991972</v>
       </c>
     </row>
     <row r="54">
@@ -1136,7 +1136,7 @@
         <v>0.3519328703703704</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4620739720653525</v>
+        <v>0.4637436577863329</v>
       </c>
     </row>
     <row r="55">
@@ -1149,7 +1149,7 @@
         <v>0.3428715277777777</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4311930633969822</v>
+        <v>0.4327298567490711</v>
       </c>
     </row>
     <row r="56">
@@ -1162,7 +1162,7 @@
         <v>0.3354293981481482</v>
       </c>
       <c r="C56" t="n">
-        <v>0.3907199248605503</v>
+        <v>0.3920906661306664</v>
       </c>
     </row>
     <row r="57">
@@ -1175,7 +1175,7 @@
         <v>0.3317465277777778</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4031163811998669</v>
+        <v>0.4045370039343745</v>
       </c>
     </row>
     <row r="58">
@@ -1188,7 +1188,7 @@
         <v>0.3295173611111111</v>
       </c>
       <c r="C58" t="n">
-        <v>0.3717213108698151</v>
+        <v>0.373017280977061</v>
       </c>
     </row>
     <row r="59">
@@ -1201,7 +1201,7 @@
         <v>0.3274710648148148</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3817218058629429</v>
+        <v>0.3830568811394121</v>
       </c>
     </row>
     <row r="60">
@@ -1214,7 +1214,7 @@
         <v>0.3247685185185186</v>
       </c>
       <c r="C60" t="n">
-        <v>0.3419814941718938</v>
+        <v>0.3431644930231138</v>
       </c>
     </row>
     <row r="61">
@@ -1227,7 +1227,7 @@
         <v>0.3220347222222222</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3417882519943188</v>
+        <v>0.3429705330375849</v>
       </c>
     </row>
     <row r="62">
@@ -1240,7 +1240,7 @@
         <v>0.319744212962963</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3265550472567733</v>
+        <v>0.3276814039564174</v>
       </c>
     </row>
     <row r="63">
@@ -1253,7 +1253,7 @@
         <v>0.318068287037037</v>
       </c>
       <c r="C63" t="n">
-        <v>0.3443323840693779</v>
+        <v>0.3455241322247016</v>
       </c>
     </row>
     <row r="64">
@@ -1266,7 +1266,7 @@
         <v>0.3174768518518519</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3153774159504824</v>
+        <v>0.3164635664616183</v>
       </c>
     </row>
     <row r="65">
@@ -1279,7 +1279,7 @@
         <v>0.3163460648148148</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3178308460086563</v>
+        <v>0.3189257614394544</v>
       </c>
     </row>
     <row r="66">
@@ -1292,7 +1292,7 @@
         <v>0.3166145833333334</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3393529338140498</v>
+        <v>0.3405261867275493</v>
       </c>
     </row>
     <row r="67">
@@ -1305,7 +1305,7 @@
         <v>0.3159270833333334</v>
       </c>
       <c r="C67" t="n">
-        <v>0.3153209456249411</v>
+        <v>0.3164068947930104</v>
       </c>
     </row>
     <row r="68">
@@ -1318,7 +1318,7 @@
         <v>0.3149884259259259</v>
       </c>
       <c r="C68" t="n">
-        <v>0.3195162375719491</v>
+        <v>0.3206171936854906</v>
       </c>
     </row>
     <row r="69">
@@ -1331,7 +1331,7 @@
         <v>0.3141018518518519</v>
       </c>
       <c r="C69" t="n">
-        <v>0.3205913798259547</v>
+        <v>0.321696197738793</v>
       </c>
     </row>
     <row r="70">
@@ -1344,7 +1344,7 @@
         <v>0.3127546296296296</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3032718168845871</v>
+        <v>0.3043152149707616</v>
       </c>
     </row>
     <row r="71">
@@ -1357,7 +1357,7 @@
         <v>0.3112164351851852</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2960539002480533</v>
+        <v>0.2970721990930535</v>
       </c>
     </row>
     <row r="72">
@@ -1370,7 +1370,7 @@
         <v>0.3095081018518519</v>
       </c>
       <c r="C72" t="n">
-        <v>0.2982900138096482</v>
+        <v>0.2993160571243137</v>
       </c>
     </row>
     <row r="73">
@@ -1383,7 +1383,7 @@
         <v>0.3077395833333333</v>
       </c>
       <c r="C73" t="n">
-        <v>0.273734636036658</v>
+        <v>0.2746771742596421</v>
       </c>
     </row>
     <row r="74">
@@ -1396,7 +1396,7 @@
         <v>0.3059965277777778</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2576793978367655</v>
+        <v>0.2585691680501624</v>
       </c>
     </row>
     <row r="75">
@@ -1409,7 +1409,7 @@
         <v>0.3041712962962962</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2615235486787043</v>
+        <v>0.2624258214921172</v>
       </c>
     </row>
     <row r="76">
@@ -1422,7 +1422,7 @@
         <v>0.3027488425925926</v>
       </c>
       <c r="C76" t="n">
-        <v>0.25170703252118</v>
+        <v>0.2525775429882721</v>
       </c>
     </row>
     <row r="77">
@@ -1435,7 +1435,7 @@
         <v>0.3022731481481482</v>
       </c>
       <c r="C77" t="n">
-        <v>0.3082866030205854</v>
+        <v>0.3093476115730091</v>
       </c>
     </row>
     <row r="78">
@@ -1448,7 +1448,7 @@
         <v>0.3021215277777778</v>
       </c>
       <c r="C78" t="n">
-        <v>0.2756542005977451</v>
+        <v>0.2766031446420492</v>
       </c>
     </row>
     <row r="79">
@@ -1461,7 +1461,7 @@
         <v>0.30140625</v>
       </c>
       <c r="C79" t="n">
-        <v>0.2687217922260148</v>
+        <v>0.2696476995516259</v>
       </c>
     </row>
     <row r="80">
@@ -1474,7 +1474,7 @@
         <v>0.3140370370370371</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3532875621886893</v>
+        <v>0.3545129232808484</v>
       </c>
     </row>
     <row r="81">
@@ -1487,7 +1487,7 @@
         <v>0.3512395833333333</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5111507141046006</v>
+        <v>0.5130426319523408</v>
       </c>
     </row>
     <row r="82">
@@ -1500,7 +1500,7 @@
         <v>0.3461909722222222</v>
       </c>
       <c r="C82" t="n">
-        <v>0.3912947987509279</v>
+        <v>0.3988757913529008</v>
       </c>
     </row>
     <row r="83">
@@ -1513,7 +1513,7 @@
         <v>0.3407604166666666</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3894013937522755</v>
+        <v>0.3907668802801103</v>
       </c>
     </row>
     <row r="84">
@@ -1526,7 +1526,7 @@
         <v>0.3448854166666667</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4807496083973564</v>
+        <v>0.4825022652058671</v>
       </c>
     </row>
     <row r="85">
@@ -1539,7 +1539,7 @@
         <v>0.3532685185185185</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5007835610315862</v>
+        <v>0.5026274048715369</v>
       </c>
     </row>
     <row r="86">
@@ -1552,7 +1552,7 @@
         <v>0.3492372685185185</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4210562326160445</v>
+        <v>0.4225505723881084</v>
       </c>
     </row>
     <row r="87">
@@ -1565,7 +1565,7 @@
         <v>0.3445636574074074</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3997113484160246</v>
+        <v>0.4011181837592763</v>
       </c>
     </row>
     <row r="88">
@@ -1578,7 +1578,7 @@
         <v>0.3402627314814815</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4243536677290205</v>
+        <v>0.4258617539282338</v>
       </c>
     </row>
     <row r="89">
@@ -1591,7 +1591,7 @@
         <v>0.3377858796296296</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4185577833188718</v>
+        <v>0.4200417482050748</v>
       </c>
     </row>
     <row r="90">
@@ -1604,7 +1604,7 @@
         <v>0.3358738425925926</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4082899977329208</v>
+        <v>0.4097316938243299</v>
       </c>
     </row>
     <row r="91">
@@ -1617,7 +1617,7 @@
         <v>0.334625</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3595221374535424</v>
+        <v>0.3607711658806174</v>
       </c>
     </row>
     <row r="92">
@@ -1630,7 +1630,7 @@
         <v>0.3332581018518518</v>
       </c>
       <c r="C92" t="n">
-        <v>0.389826784485038</v>
+        <v>0.3911939652548098</v>
       </c>
     </row>
   </sheetData>
